--- a/Épületek.xlsx
+++ b/Épületek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boroncsok Dominik 9.I\verseny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D154TAN-17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D8505-1573-497F-AF2E-0DFB578E773D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{96C42F3D-C0EA-4D68-AC09-E8DA23E5C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDB3C3E-7A03-4AFF-80B9-EC611D2521CB}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Épületek" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,28 @@
   <definedNames>
     <definedName name="Épületek">Épületek!$A$1:$E$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>EpuletAzonosíto</t>
   </si>
@@ -49,125 +65,125 @@
     <t>Boroncsok ház</t>
   </si>
   <si>
+    <t>Szálloda</t>
+  </si>
+  <si>
     <t>Pánczél ház</t>
   </si>
   <si>
+    <t>Kórház</t>
+  </si>
+  <si>
     <t>Vanicsek ház</t>
   </si>
   <si>
+    <t>Étterem</t>
+  </si>
+  <si>
     <t>Héger ház</t>
   </si>
   <si>
+    <t>Vegyesbolt</t>
+  </si>
+  <si>
     <t>Csáki ház</t>
   </si>
   <si>
+    <t>Börtön</t>
+  </si>
+  <si>
     <t>Sipos ház</t>
   </si>
   <si>
+    <t>Általános Iskola</t>
+  </si>
+  <si>
     <t>Sümegi ház</t>
   </si>
   <si>
+    <t>Közép Iskola</t>
+  </si>
+  <si>
     <t>Python Pizzéria</t>
   </si>
   <si>
-    <t>Étterem</t>
+    <t>Óvoda</t>
   </si>
   <si>
     <t>Hotel Panorama</t>
   </si>
   <si>
-    <t>Szálloda</t>
+    <t>Kávézó</t>
   </si>
   <si>
     <t>Mentő Ernő</t>
   </si>
   <si>
-    <t>Kórház</t>
+    <t>Autószerelő</t>
   </si>
   <si>
     <t>C++ Vegyesbolt</t>
   </si>
   <si>
-    <t>Vegyesbolt</t>
+    <t>Gyógyszertár</t>
   </si>
   <si>
     <t>Kovács Gültem Börtön</t>
   </si>
   <si>
-    <t>Börtön</t>
+    <t>Rendőrség</t>
   </si>
   <si>
     <t>Jóvér Áron Általános Iskola</t>
   </si>
   <si>
-    <t>Általános Iskola</t>
+    <t>Tűzoltóság</t>
   </si>
   <si>
     <t>Boronkay György Műszaki Technikum és Gimnázium</t>
   </si>
   <si>
-    <t>Közép Iskola</t>
+    <t>Vasútállomás</t>
   </si>
   <si>
     <t>Sasúti Óvoda</t>
   </si>
   <si>
-    <t>Óvoda</t>
+    <t>Buszpályaudvar</t>
   </si>
   <si>
     <t>C# Kávézó</t>
   </si>
   <si>
-    <t>Kávézó</t>
+    <t>Konditerem</t>
   </si>
   <si>
     <t>BD Tuning</t>
   </si>
   <si>
-    <t>Autószerelő</t>
-  </si>
-  <si>
     <t>Szent-Györgyi Albert Gyógyszertár</t>
   </si>
   <si>
-    <t>Gyógyszertár</t>
-  </si>
-  <si>
     <t>Viselkedj Rendőrség</t>
   </si>
   <si>
-    <t>Rendőrség</t>
-  </si>
-  <si>
     <t>Oltó Tűzoltó</t>
   </si>
   <si>
-    <t>Tűzoltóság</t>
-  </si>
-  <si>
     <t>Álomváros Vasútállomás</t>
   </si>
   <si>
-    <t>Vasútállomás</t>
-  </si>
-  <si>
     <t>Álomváros Buszpályudvar</t>
   </si>
   <si>
-    <t>Buszpályaudvar</t>
-  </si>
-  <si>
     <t>Pánczél László Konditerem</t>
-  </si>
-  <si>
-    <t>Konditerem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,10 +231,1325 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Épületek</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-9876-4BFF-848A-A58B1ADFDB95}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Épületek!$H$2:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Lakóház</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Szálloda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kórház</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Étterem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vegyesbolt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Börtön</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Általános Iskola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Közép Iskola</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Óvoda</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Kávézó</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Autószerelő</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gyógyszertár</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rendőrség</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tűzoltóság</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Vasútállomás</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Buszpályaudvar</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Konditerem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Épületek!$I$2:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-610E-49C2-A5C9-E07A3B4D0214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA701B2-B2A0-4C5C-80F3-C84DB1EBE679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,9 +1587,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,26 +1622,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,26 +1657,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,22 +1833,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,8 +1882,14 @@
       <c r="E2">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -601,13 +1905,19 @@
       <c r="E3">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -618,13 +1928,19 @@
       <c r="E4">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -635,13 +1951,19 @@
       <c r="E5">
         <v>640</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -652,13 +1974,19 @@
       <c r="E6">
         <v>589</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -669,13 +1997,19 @@
       <c r="E7">
         <v>420</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -686,13 +2020,19 @@
       <c r="E8">
         <v>674</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -703,16 +2043,22 @@
       <c r="E9">
         <v>621</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>2019</v>
@@ -720,16 +2066,22 @@
       <c r="E10">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>1966</v>
@@ -737,16 +2089,22 @@
       <c r="E11">
         <v>1598</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1927</v>
@@ -754,16 +2112,22 @@
       <c r="E12">
         <v>2170</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>2009</v>
@@ -771,16 +2135,22 @@
       <c r="E13">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1986</v>
@@ -788,16 +2158,22 @@
       <c r="E14">
         <v>1343</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>1987</v>
@@ -805,16 +2181,22 @@
       <c r="E15">
         <v>976</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>2003</v>
@@ -822,16 +2204,22 @@
       <c r="E16">
         <v>2754</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1952</v>
@@ -839,16 +2227,22 @@
       <c r="E17">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>2012</v>
@@ -856,16 +2250,22 @@
       <c r="E18">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>2020</v>
@@ -874,15 +2274,15 @@
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>1997</v>
@@ -891,15 +2291,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>1976</v>
@@ -908,15 +2308,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>1997</v>
@@ -925,15 +2325,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>1896</v>
@@ -942,15 +2342,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>1978</v>
@@ -959,15 +2359,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -978,5 +2378,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>